--- a/Templates/metabolic rate/12_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/12_template_metabolic_rate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC8FEA-4B63-4308-9233-EC16424CB855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F3569-CCF5-4749-BFCF-0367FF19E253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="8" r:id="rId1"/>
+    <sheet name="data" sheetId="4" r:id="rId1"/>
     <sheet name="ShareTrait_metadata" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="167">
   <si>
     <t>Column_name</t>
   </si>
@@ -40,12 +40,24 @@
     <t>Species according to the paper</t>
   </si>
   <si>
+    <t>Type of metric used to estimate error</t>
+  </si>
+  <si>
+    <t>sample_size</t>
+  </si>
+  <si>
     <t>pretreatment_temp</t>
   </si>
   <si>
     <t>pretreatment_duration</t>
   </si>
   <si>
+    <t>Season when individuals were collected (according to Hemisphere where the study was conducted)</t>
+  </si>
+  <si>
+    <t>spring, summer, fall, winter</t>
+  </si>
+  <si>
     <t>elevation_of_collection</t>
   </si>
   <si>
@@ -97,6 +109,12 @@
     <t>timing</t>
   </si>
   <si>
+    <t>year_of_collection</t>
+  </si>
+  <si>
+    <t>season_of_collection</t>
+  </si>
+  <si>
     <t>Column_description</t>
   </si>
   <si>
@@ -112,9 +130,36 @@
     <t>realm_general</t>
   </si>
   <si>
+    <t>year_of_collection_initial</t>
+  </si>
+  <si>
+    <t>year_of_collection_final</t>
+  </si>
+  <si>
     <t>acclimated</t>
   </si>
   <si>
+    <t>acclimation_duration</t>
+  </si>
+  <si>
+    <t>acclimation_temperature</t>
+  </si>
+  <si>
+    <t>acclimation_oxygen</t>
+  </si>
+  <si>
+    <t>acclimation_photoperiod</t>
+  </si>
+  <si>
+    <t>acclimation_carbon_dioxide</t>
+  </si>
+  <si>
+    <t>acclimation_carbon_dioxide_units</t>
+  </si>
+  <si>
+    <t>acclimation_oxygen_units</t>
+  </si>
+  <si>
     <t>metabolic_rate_type</t>
   </si>
   <si>
@@ -130,6 +175,12 @@
     <t>respiration_volume</t>
   </si>
   <si>
+    <t>delay_time</t>
+  </si>
+  <si>
+    <t>respiratory_chamber_material</t>
+  </si>
+  <si>
     <t>incubation_time</t>
   </si>
   <si>
@@ -160,6 +211,18 @@
     <t>test_temperature</t>
   </si>
   <si>
+    <t>test_oxygen</t>
+  </si>
+  <si>
+    <t>test_carbon_dioxide</t>
+  </si>
+  <si>
+    <t>test_oxygen_units</t>
+  </si>
+  <si>
+    <t>test_carbon_dioxide_units</t>
+  </si>
+  <si>
     <t>reproductive_stage</t>
   </si>
   <si>
@@ -169,6 +232,9 @@
     <t>Units_or_categories</t>
   </si>
   <si>
+    <t>Error associated with trait estimate</t>
+  </si>
+  <si>
     <t>name_contact</t>
   </si>
   <si>
@@ -184,6 +250,15 @@
     <t>Indicates where species inhabit</t>
   </si>
   <si>
+    <t>month_of_collection_initial</t>
+  </si>
+  <si>
+    <t>month_of_collection_final</t>
+  </si>
+  <si>
+    <t>january, february, etc</t>
+  </si>
+  <si>
     <t>days</t>
   </si>
   <si>
@@ -202,6 +277,12 @@
     <t>resp_unit</t>
   </si>
   <si>
+    <t>resp_error_estimate</t>
+  </si>
+  <si>
+    <t>resp_error_type</t>
+  </si>
+  <si>
     <t>experimental_conditions</t>
   </si>
   <si>
@@ -214,6 +295,12 @@
     <t>comments_timing</t>
   </si>
   <si>
+    <t>date_of_collection_initial</t>
+  </si>
+  <si>
+    <t>date_of_collection</t>
+  </si>
+  <si>
     <t>Name of the contact person established in the reference, usually the same as the corresponding author. Names and surnames are separated by "_". Example: Share_Trait</t>
   </si>
   <si>
@@ -241,6 +328,12 @@
     <t>Longitude, in decimal degrees, where individuals were collected. Sign according to where the study was conducted: West is negative and East is positive</t>
   </si>
   <si>
+    <t>First month when individuals were collected</t>
+  </si>
+  <si>
+    <t>Final month when individuals were collected</t>
+  </si>
+  <si>
     <t>Duration in days of the pretreatment, i.e. before the experiment</t>
   </si>
   <si>
@@ -253,9 +346,48 @@
     <t>Indicates whether individuals were acllimated or not</t>
   </si>
   <si>
+    <t>Acclimation duration</t>
+  </si>
+  <si>
+    <t>Acclimation temperature</t>
+  </si>
+  <si>
+    <t>Acclimation oxygen</t>
+  </si>
+  <si>
+    <t>Acclimation photoperiod</t>
+  </si>
+  <si>
+    <t>Exact date of individuals collection following the format YYYYMMDD, for instance: 20220412</t>
+  </si>
+  <si>
+    <t>Exact initial date of individuals collection following the format YYYYMMDD, for instance: 20220412</t>
+  </si>
+  <si>
+    <t>Exact final date of individuals collection following the format YYYYMMDD, for instance: 20220412</t>
+  </si>
+  <si>
+    <t>Year when individuals were collected</t>
+  </si>
+  <si>
+    <t>Initial year when individuals were collected</t>
+  </si>
+  <si>
+    <t>Final year when individuals were collected</t>
+  </si>
+  <si>
     <t>Temperature in the laboratory before acclimation</t>
   </si>
   <si>
+    <t>Acclimation carbon dioxide</t>
+  </si>
+  <si>
+    <t>acclimation_humidity</t>
+  </si>
+  <si>
+    <t>Acclimation humidity</t>
+  </si>
+  <si>
     <t>Sensor type</t>
   </si>
   <si>
@@ -265,9 +397,27 @@
     <t>Test temperature</t>
   </si>
   <si>
+    <t>Test oxygen</t>
+  </si>
+  <si>
+    <t>Units used to express the oxygen during acclimation</t>
+  </si>
+  <si>
+    <t>Units used to express the carbon dioxide during acclimation</t>
+  </si>
+  <si>
+    <t>kPa: kilopascals; sat: saturation; mg_l: miligrams per liter; mL_L: mililiters per liter)</t>
+  </si>
+  <si>
+    <t>ppm: parts per million; atm: atmosphere; micro-atm: micro atmostphere</t>
+  </si>
+  <si>
     <t>type of metabolic rate</t>
   </si>
   <si>
+    <t>relative percentage</t>
+  </si>
+  <si>
     <t>basal; standard; routine; active</t>
   </si>
   <si>
@@ -286,6 +436,15 @@
     <t>mililiter</t>
   </si>
   <si>
+    <t>Provide wait (delay) time excluded from closed measurement cycles. Also referred as equilibration period.</t>
+  </si>
+  <si>
+    <t>Material of respirometer</t>
+  </si>
+  <si>
+    <t>glass; plastic; acrylic</t>
+  </si>
+  <si>
     <t>Time spend in the respirometry chamber</t>
   </si>
   <si>
@@ -343,7 +502,22 @@
     <t>celcius degres</t>
   </si>
   <si>
+    <t>Test carbon dioxide</t>
+  </si>
+  <si>
+    <t>Units used to express the oxygen during testing</t>
+  </si>
+  <si>
+    <t>Units used to express the carbon dioxide during testing</t>
+  </si>
+  <si>
+    <t>Number of individuals tested for respiration estimate</t>
+  </si>
+  <si>
     <t>Relevant notes about the respiration</t>
+  </si>
+  <si>
+    <t>SD: standard deviation; SE: standard error; CI: 95% confidence intervals</t>
   </si>
   <si>
     <t>Units of metabolic rates used in the study</t>
@@ -362,7 +536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,14 +553,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -552,7 +721,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,130 +1034,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A9F123-3408-4F3C-8664-ED38F09F18A6}">
-  <dimension ref="A1:AL1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652819D4-7C12-4E32-AC50-C1B6FFA8FA00}">
+  <dimension ref="A1:BL1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="AO1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="28" t="s">
+      <c r="AP1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="BD1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL1" s="30" t="s">
-        <v>54</v>
+      <c r="BL1" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -999,11 +1245,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,27 +1263,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1</v>
@@ -1045,13 +1291,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -1059,13 +1305,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
@@ -1073,13 +1319,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -1087,13 +1333,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1</v>
@@ -1101,13 +1347,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1</v>
@@ -1115,10 +1361,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>2</v>
@@ -1129,69 +1375,69 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>1</v>
@@ -1199,13 +1445,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>1</v>
@@ -1213,27 +1459,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
@@ -1241,321 +1487,685 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>51</v>
+      <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="17" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>81</v>
+      <c r="C26" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>91</v>
+        <v>35</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>92</v>
+        <v>36</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>77</v>
+      <c r="C36" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="C48" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="21" t="s">
+      <c r="C52" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="C55" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Templates/metabolic rate/12_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/12_template_metabolic_rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F3569-CCF5-4749-BFCF-0367FF19E253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A14CB9-A4F8-4302-9125-FC007776E0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="168">
   <si>
     <t>Column_name</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
+  </si>
+  <si>
+    <t>date_of_collection_final</t>
   </si>
 </sst>
 </file>
@@ -1037,9 +1040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652819D4-7C12-4E32-AC50-C1B6FFA8FA00}">
   <dimension ref="A1:BL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1100,7 @@
         <v>88</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="S1" s="29" t="s">
         <v>26</v>
@@ -1247,9 +1250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B65"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>111</v>
